--- a/sample_output/sample_output.xlsx
+++ b/sample_output/sample_output.xlsx
@@ -1950,10 +1950,10 @@
     <t>ST8SIA4</t>
   </si>
   <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
   </si>
   <si>
     <t>weight</t>
